--- a/medicine/Enfance/Pierre_Cornuel/Pierre_Cornuel.xlsx
+++ b/medicine/Enfance/Pierre_Cornuel/Pierre_Cornuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Cornuel, né à Chantenay-Villedieu (Sarthe), est un auteur pour la jeunesse, peintre et illustrateur français.
 Diplômé de l'École supérieure des arts modernes (ESAM) de Paris, il a publié une soixantaine d’albums jeunesse, principalement aux Éditions Grasset. Il expose ses œuvres acrylique, huile, aquarelle, encre de Chine et pastels en France et à l'étranger. Le jazz fait partie de ses sources d'inspiration.
@@ -512,19 +524,21 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de parents commerçants, Pierre Cornuel se découvre très tôt un goût pour le dessin qu'il expérimente sous diverses formes : croquis, caricatures, paysages, gags. À l'adolescence, il s'essaye à la bande dessinée[1].
-En 1971, il entre à l'École supérieure des arts modernes de Paris (ESAM design). La même année, il se lance sur les routes du grand Nord, sac au dos et carnets à la main, lesquels inspireront ou engendreront par la suite livres et expositions[2].
-À l'ESAM, il produit des illustrations pour les publications des Éditions Bayard, mais aussi dans la publicité comme graphiste. Pierre Cornuel illustre (souvent pour Grasset, mais aussi pour Flammarion, Actes Sud, Nathan, Hatier ou Rouge et Or) des histoires de Lydia Devos, Henriette Bichonnier ou Amanda Sthers, ainsi que des adaptations de grands classiques (La Fontaine, Grimm…) ou ses propres scénarios. Il participe également à la création de films d'animation (tel Le Père Noël et le Magicien, réalisé par Henri Heidsieck en 1994[3]).
-En 1982, passionné de musique, il entame une collaboration avec la maison de disques Nato fondée par Jean Rochard[4]. Pierre Cornuel effectuera la quasi-totalité des couvertures des disques et de leurs lignes graphiques jusqu'au disque Buenaventura Durruti. Certaines de ses couvertures ont été citées comme modèle et remarquées par la critique[5] : Haunt of the Unresolved de John Lindberg, Hörmuzik Zwei de Günter Sommer, Pop Out Eyes du British Summer Time Ends, Deadly Weapons de Steve Beresford, John Zorn, David Toop et Tonie Marshall, Island Songs de Mike Cooper, Flying Fortress de Tony Hymas, Café de la Place de Lol Coxhill, Ascenseur pour le 28 de Günter Sommer. La collaboration avec Nato s'achève en 1996.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de parents commerçants, Pierre Cornuel se découvre très tôt un goût pour le dessin qu'il expérimente sous diverses formes : croquis, caricatures, paysages, gags. À l'adolescence, il s'essaye à la bande dessinée.
+En 1971, il entre à l'École supérieure des arts modernes de Paris (ESAM design). La même année, il se lance sur les routes du grand Nord, sac au dos et carnets à la main, lesquels inspireront ou engendreront par la suite livres et expositions.
+À l'ESAM, il produit des illustrations pour les publications des Éditions Bayard, mais aussi dans la publicité comme graphiste. Pierre Cornuel illustre (souvent pour Grasset, mais aussi pour Flammarion, Actes Sud, Nathan, Hatier ou Rouge et Or) des histoires de Lydia Devos, Henriette Bichonnier ou Amanda Sthers, ainsi que des adaptations de grands classiques (La Fontaine, Grimm…) ou ses propres scénarios. Il participe également à la création de films d'animation (tel Le Père Noël et le Magicien, réalisé par Henri Heidsieck en 1994).
+En 1982, passionné de musique, il entame une collaboration avec la maison de disques Nato fondée par Jean Rochard. Pierre Cornuel effectuera la quasi-totalité des couvertures des disques et de leurs lignes graphiques jusqu'au disque Buenaventura Durruti. Certaines de ses couvertures ont été citées comme modèle et remarquées par la critique : Haunt of the Unresolved de John Lindberg, Hörmuzik Zwei de Günter Sommer, Pop Out Eyes du British Summer Time Ends, Deadly Weapons de Steve Beresford, John Zorn, David Toop et Tonie Marshall, Island Songs de Mike Cooper, Flying Fortress de Tony Hymas, Café de la Place de Lol Coxhill, Ascenseur pour le 28 de Günter Sommer. La collaboration avec Nato s'achève en 1996.
 L'ouvrage J'en ai marre d'être un hippopotame est publié en 1997 avec un trait « libéré ». Son travail d'illustrateur et de peintre se retrouvent alors fortement liés.
-En 2005, il interprète l’Odyssée d'Homère en une suite de tableaux non figuratifs[6].
-Il fonde le collectif Lena Gallery et le site lena-gallery.com (LGC)[7] avec d'autres artistes issus de la peinture, de la littérature ou du théâtre en 2007.
-En 2010, son album Chu Ta et Ta’O, le peintre et l’oiseau, écrit avec Sohee Kim, lui vaut la reconnaissance des musées nationaux de Paris[8]. L'exposition Fleurs noires à la galerie Art Présent de Stephen Joannon est sélectionnée par France 2 pour l'émission Thé ou café.
-La Fédération nationale de la Culture française lui attribue le prix Toile d’or de l’année 2012 pour son triptyque Femmes rebelles[9].
+En 2005, il interprète l’Odyssée d'Homère en une suite de tableaux non figuratifs.
+Il fonde le collectif Lena Gallery et le site lena-gallery.com (LGC) avec d'autres artistes issus de la peinture, de la littérature ou du théâtre en 2007.
+En 2010, son album Chu Ta et Ta’O, le peintre et l’oiseau, écrit avec Sohee Kim, lui vaut la reconnaissance des musées nationaux de Paris. L'exposition Fleurs noires à la galerie Art Présent de Stephen Joannon est sélectionnée par France 2 pour l'émission Thé ou café.
+La Fédération nationale de la Culture française lui attribue le prix Toile d’or de l’année 2012 pour son triptyque Femmes rebelles.
 Les enseignants le sollicitent régulièrement dans leurs classes de primaire, collège et lycée car il aborde dans ses livres quelques sujets graves : racisme, look, racket, sectes, chirurgie esthétique, mais la vivacité fantaisiste de ses croquis d'animaux évite toute lourdeur didactique. Dans Chacun son look, Racket story et Bistouri Show publiés chez Grasset, il dédramatise des sujets de société qui concernent les adolescents : la dictature des marques vestimentaires ou l'apparence physique et la violence des quartiers. Parallèlement, il anime dans son atelier de Saint-Germain-en-Laye des cours d'illustration et de bande dessinée pour tout public[réf. nécessaire].
-Il est exposé dans de nombreuses galeries et centres culturels français de par le monde (Paris, Rome, Bologne, Berlin, New-York, Londres, Nishinomiya, Izmir…'issue de l'E)[10].
+Il est exposé dans de nombreuses galeries et centres culturels français de par le monde (Paris, Rome, Bologne, Berlin, New-York, Londres, Nishinomiya, Izmir…'issue de l'E).
 </t>
         </is>
       </c>
@@ -553,7 +567,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les deux maisons de Désiré Raton, Grasset, 1982 (texte de Lydia Devos), 2000,  (ISBN 9782246279327)
 Le chat et la souris voyagent dans l'espace, Grasset, 1983 (texte de Henriette Bichonnier)  (ISBN 9782246319122)
@@ -578,7 +594,7 @@
 L’oiseau et la tortue, L’Art à la page 2003, Pas d’ISBN livre d’artiste Édition galerie l’Art à la Page
 Racket-Story, Grasset J, 2005,  (ISBN 9782246685616)
 Le chat bleu, l'alouette et le canard timide, Grasset, 2005 (texte de Amanda Sthers), Prix jeunesse Saint-Laurent-du-Var 2009,  (ISBN 978-2-246-71-581-8)
-Bistouri show[11], Grasset J, 2007 (Lampe de poche)
+Bistouri show, Grasset J, 2007 (Lampe de poche)
 Chu ta et Ta'O, le peintre et l'oiseau (avec Sohee Kim), Grasset jeunesse, 2010,  (ISBN 978-2-246-76921-7)
 Éclats de Lune, Éditions HongFei Cultures, 2013,  (ISBN 978-2-35558-066-6)
 Le Héros, Éditions HongFei Cultures, 2015, (ISBN 978-2-35558-104-5)
